--- a/output/EEOE606_output.xlsx
+++ b/output/EEOE606_output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Staff Report</t>
   </si>
@@ -66,6 +66,18 @@
     <t>&lt;----Type Your Name</t>
   </si>
   <si>
+    <t>Course Code:</t>
+  </si>
+  <si>
+    <t>EEOE 606</t>
+  </si>
+  <si>
+    <t>&lt;---- Type Subject Code</t>
+  </si>
+  <si>
+    <t>Max Marks:</t>
+  </si>
+  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -81,16 +93,16 @@
     <t>Total Absent</t>
   </si>
   <si>
-    <t>Average Marks &amp; %</t>
-  </si>
-  <si>
-    <t>Less Than 15</t>
-  </si>
-  <si>
-    <t>Between 15-30</t>
-  </si>
-  <si>
-    <t>More than 30</t>
+    <t>Average Marks</t>
+  </si>
+  <si>
+    <t>Less Than 40%</t>
+  </si>
+  <si>
+    <t>Between 40 % - 75 %</t>
+  </si>
+  <si>
+    <t>More than 75%</t>
   </si>
   <si>
     <t>S.No.</t>
@@ -705,17 +717,39 @@
       </c>
       <c r="D10" s="2"/>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>51</v>
@@ -723,7 +757,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
@@ -731,7 +765,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -739,15 +773,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>22.2156862745098</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>11</v>
@@ -755,7 +789,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>33</v>
@@ -763,7 +797,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>7</v>
@@ -787,16 +821,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -807,7 +841,7 @@
         <v>2136110046</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -821,7 +855,7 @@
         <v>2136110033</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -835,7 +869,7 @@
         <v>2136110006</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -849,7 +883,7 @@
         <v>2136110035</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -863,7 +897,7 @@
         <v>2136110005</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -877,7 +911,7 @@
         <v>2136110044</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -891,7 +925,7 @@
         <v>2136110029</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -905,7 +939,7 @@
         <v>2136110032</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -919,7 +953,7 @@
         <v>2236150003</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>12</v>
@@ -933,7 +967,7 @@
         <v>2136110002</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -947,7 +981,7 @@
         <v>2136110011</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -968,16 +1002,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -988,7 +1022,7 @@
         <v>2136110047</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -1002,7 +1036,7 @@
         <v>2136110016</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>34</v>
@@ -1016,7 +1050,7 @@
         <v>2136110031</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -1030,7 +1064,7 @@
         <v>2136110013</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -1044,7 +1078,7 @@
         <v>2136110030</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>32</v>
@@ -1058,7 +1092,7 @@
         <v>2136110040</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>31</v>
@@ -1072,7 +1106,7 @@
         <v>2236150001</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -1086,7 +1120,7 @@
         <v>2136110026</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>29</v>
@@ -1100,7 +1134,7 @@
         <v>2136110049</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>29</v>
@@ -1114,7 +1148,7 @@
         <v>2136110022</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>29</v>
@@ -1128,7 +1162,7 @@
         <v>2136110004</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>28</v>
@@ -1142,7 +1176,7 @@
         <v>2136110014</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>28</v>
@@ -1156,7 +1190,7 @@
         <v>2136110045</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>28</v>
@@ -1170,7 +1204,7 @@
         <v>2136110008</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>28</v>
@@ -1184,7 +1218,7 @@
         <v>2136110001</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D16">
         <v>28</v>
@@ -1198,7 +1232,7 @@
         <v>2136110020</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <v>27</v>
@@ -1212,7 +1246,7 @@
         <v>2136110025</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <v>27</v>
@@ -1226,7 +1260,7 @@
         <v>2136110021</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D19">
         <v>26</v>
@@ -1240,7 +1274,7 @@
         <v>2136110019</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D20">
         <v>26</v>
@@ -1254,7 +1288,7 @@
         <v>2136110010</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D21">
         <v>26</v>
@@ -1268,7 +1302,7 @@
         <v>2136110036</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>26</v>
@@ -1282,7 +1316,7 @@
         <v>2136110038</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D23">
         <v>26</v>
@@ -1296,7 +1330,7 @@
         <v>2136110039</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D24">
         <v>26</v>
@@ -1310,7 +1344,7 @@
         <v>2136110009</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D25">
         <v>26</v>
@@ -1324,7 +1358,7 @@
         <v>2136110007</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D26">
         <v>26</v>

--- a/output/EEOE606_output.xlsx
+++ b/output/EEOE606_output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Staff Report</t>
   </si>
@@ -135,94 +135,58 @@
     <t>Sathishkumar N</t>
   </si>
   <si>
+    <t>Jaikrishnan V</t>
+  </si>
+  <si>
+    <t>Krishnakumar S</t>
+  </si>
+  <si>
     <t>Balaganapathi A</t>
   </si>
   <si>
-    <t>Jaikrishnan V</t>
-  </si>
-  <si>
-    <t>Krishnakumar S</t>
-  </si>
-  <si>
     <t>Arulselvam C</t>
   </si>
   <si>
     <t>Manoharan K</t>
   </si>
   <si>
+    <t>Mohammed Azees M</t>
+  </si>
+  <si>
+    <t>Rajadurai P</t>
+  </si>
+  <si>
+    <t>Mohanraj D</t>
+  </si>
+  <si>
+    <t>Sanjay S</t>
+  </si>
+  <si>
+    <t>Ayyanar Bala Subramanian T</t>
+  </si>
+  <si>
+    <t>Kaviraj M</t>
+  </si>
+  <si>
+    <t>Upanshu</t>
+  </si>
+  <si>
+    <t>Nithya Sri R</t>
+  </si>
+  <si>
     <t>Gowtham R</t>
   </si>
   <si>
-    <t>Nithya Sri R</t>
+    <t>Naveena A</t>
+  </si>
+  <si>
+    <t>Brijesh A</t>
   </si>
   <si>
     <t>Hitesh Kumar K A</t>
   </si>
   <si>
-    <t>Naveena A</t>
-  </si>
-  <si>
-    <t>Brijesh A</t>
-  </si>
-  <si>
     <t>Preethiga S</t>
-  </si>
-  <si>
-    <t>Dhanush B</t>
-  </si>
-  <si>
-    <t>Ajay S</t>
-  </si>
-  <si>
-    <t>Kailashwaran R</t>
-  </si>
-  <si>
-    <t>Suji Shri B</t>
-  </si>
-  <si>
-    <t>Deepakragavan J</t>
-  </si>
-  <si>
-    <t>Nawin B</t>
-  </si>
-  <si>
-    <t>Varsha V</t>
-  </si>
-  <si>
-    <t>Jananika B</t>
-  </si>
-  <si>
-    <t>Aravind S</t>
-  </si>
-  <si>
-    <t>Srija D</t>
-  </si>
-  <si>
-    <t>Adhithi K</t>
-  </si>
-  <si>
-    <t>Subhashini S</t>
-  </si>
-  <si>
-    <t>Sivaa Ganesh S</t>
-  </si>
-  <si>
-    <t>Krishnapriya K</t>
-  </si>
-  <si>
-    <t>Mohamed Suhail J</t>
-  </si>
-  <si>
-    <t>Pradeep M</t>
-  </si>
-  <si>
-    <t>Pranav Varshan A T</t>
-  </si>
-  <si>
-    <t>Kalaivani S</t>
-  </si>
-  <si>
-    <t>Guruprasath V</t>
   </si>
 </sst>
 </file>
@@ -813,7 +777,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -919,10 +883,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>2136110029</v>
+        <v>2136110032</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -933,10 +897,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>2136110032</v>
+        <v>2236150003</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -947,10 +911,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <v>2236150003</v>
+        <v>2136110029</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
@@ -985,6 +949,104 @@
       </c>
       <c r="D12">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>2236150002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>2136110042</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2136110012</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>42</v>
+      </c>
+      <c r="B16">
+        <v>2136110043</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>2136110028</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>2136110034</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>2136110024</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -994,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1016,13 +1078,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>2136110047</v>
+        <v>2136110016</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -1030,13 +1092,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B3">
-        <v>2136110016</v>
+        <v>2136110047</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>34</v>
@@ -1044,13 +1106,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>2136110031</v>
+        <v>2136110013</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -1058,13 +1120,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>2136110013</v>
+        <v>2136110030</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -1072,13 +1134,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>2136110030</v>
+        <v>2136110031</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>32</v>
@@ -1092,276 +1154,10 @@
         <v>2136110040</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>2236150001</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>2136110026</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>48</v>
-      </c>
-      <c r="B10">
-        <v>2136110049</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>2136110022</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>2136110004</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>2136110014</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>2136110045</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>2136110008</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>2136110001</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>2136110020</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>2136110025</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>2136110021</v>
-      </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>2136110019</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>10</v>
-      </c>
-      <c r="B21">
-        <v>2136110010</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>35</v>
-      </c>
-      <c r="B22">
-        <v>2136110036</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>37</v>
-      </c>
-      <c r="B23">
-        <v>2136110038</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>2136110039</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="B25">
-        <v>2136110009</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <v>2136110007</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/output/EEOE606_output.xlsx
+++ b/output/EEOE606_output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Staff Report</t>
   </si>
@@ -99,7 +99,7 @@
     <t>Less Than 40%</t>
   </si>
   <si>
-    <t>Between 40 % - 75 %</t>
+    <t>Between 40% - 75%</t>
   </si>
   <si>
     <t>More than 75%</t>
@@ -135,40 +135,19 @@
     <t>Sathishkumar N</t>
   </si>
   <si>
+    <t>Balaganapathi A</t>
+  </si>
+  <si>
     <t>Jaikrishnan V</t>
   </si>
   <si>
     <t>Krishnakumar S</t>
   </si>
   <si>
-    <t>Balaganapathi A</t>
-  </si>
-  <si>
     <t>Arulselvam C</t>
   </si>
   <si>
     <t>Manoharan K</t>
-  </si>
-  <si>
-    <t>Mohammed Azees M</t>
-  </si>
-  <si>
-    <t>Rajadurai P</t>
-  </si>
-  <si>
-    <t>Mohanraj D</t>
-  </si>
-  <si>
-    <t>Sanjay S</t>
-  </si>
-  <si>
-    <t>Ayyanar Bala Subramanian T</t>
-  </si>
-  <si>
-    <t>Kaviraj M</t>
-  </si>
-  <si>
-    <t>Upanshu</t>
   </si>
   <si>
     <t>Nithya Sri R</t>
@@ -585,7 +564,7 @@
     <col min="1" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35" customHeight="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +590,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="35" customHeight="1">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -777,7 +756,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -883,10 +862,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>2136110032</v>
+        <v>2136110029</v>
       </c>
       <c r="C8" t="s">
         <v>39</v>
@@ -897,10 +876,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>2236150003</v>
+        <v>2136110032</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -911,10 +890,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B10">
-        <v>2136110029</v>
+        <v>2236150003</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
@@ -949,104 +928,6 @@
       </c>
       <c r="D12">
         <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>50</v>
-      </c>
-      <c r="B13">
-        <v>2236150002</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>41</v>
-      </c>
-      <c r="B14">
-        <v>2136110042</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>2136110012</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>42</v>
-      </c>
-      <c r="B16">
-        <v>2136110043</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>27</v>
-      </c>
-      <c r="B17">
-        <v>2136110028</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>33</v>
-      </c>
-      <c r="B18">
-        <v>2136110034</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>2136110024</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +965,7 @@
         <v>2136110016</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -1098,7 +979,7 @@
         <v>2136110047</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>34</v>
@@ -1112,7 +993,7 @@
         <v>2136110013</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -1126,7 +1007,7 @@
         <v>2136110030</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>32</v>
@@ -1140,7 +1021,7 @@
         <v>2136110031</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>32</v>
@@ -1154,7 +1035,7 @@
         <v>2136110040</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>31</v>
